--- a/Glossary/healthcare-glossary.xlsx
+++ b/Glossary/healthcare-glossary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Workshop--PDC\Glossary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACBBFDD4-BEE5-46FF-BC46-40E79D59558B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AA4429-2D11-4B60-9ED7-0742AF8E6E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="59025" yWindow="2670" windowWidth="24855" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="99">
   <si>
     <t>Domain</t>
   </si>
@@ -324,6 +324,15 @@
   </si>
   <si>
     <t>A service available in every state that helps individuals, families, and small businesses shop for and enroll in affordable medical insurance.</t>
+  </si>
+  <si>
+    <t>Patient Date of Birth</t>
+  </si>
+  <si>
+    <t>Patient personal email address</t>
+  </si>
+  <si>
+    <t>US Social Security Number - AAA-GG-SSSS</t>
   </si>
 </sst>
 </file>
@@ -379,9 +388,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -419,7 +428,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -525,7 +534,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -667,7 +676,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -678,7 +687,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,7 +745,7 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -762,7 +771,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -788,7 +797,7 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -812,6 +821,9 @@
       </c>
       <c r="E5" t="s">
         <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>98</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
